--- a/Assets/Spreadsheets/Weapons.xlsx
+++ b/Assets/Spreadsheets/Weapons.xlsx
@@ -16,16 +16,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M1">
-      <text>
-        <t xml:space="preserve">무기 강화비용</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N1">
-      <text>
-        <t xml:space="preserve">무기 강화비용 상승량</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="G82">
       <text>
         <t xml:space="preserve">공격 시 1% 확률로 적을 즉시 처치</t>
@@ -51,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -78,21 +68,6 @@
   </si>
   <si>
     <t>autoAttackDamage</t>
-  </si>
-  <si>
-    <t>autoAttackDamageGrowth</t>
-  </si>
-  <si>
-    <t>tapDamage</t>
-  </si>
-  <si>
-    <t>tapDamageGrowth</t>
-  </si>
-  <si>
-    <t>growthCost</t>
-  </si>
-  <si>
-    <t>growthCostChange</t>
   </si>
   <si>
     <t>낡은 철검</t>
@@ -983,24 +958,19 @@
     <col customWidth="1" min="6" max="6" width="4.88"/>
     <col customWidth="1" min="7" max="7" width="19.38"/>
     <col customWidth="1" min="8" max="9" width="16.5"/>
-    <col customWidth="1" min="10" max="10" width="20.5"/>
-    <col customWidth="1" min="11" max="11" width="15.75"/>
-    <col customWidth="1" min="12" max="12" width="21.5"/>
-    <col customWidth="1" min="13" max="13" width="13.25"/>
-    <col customWidth="1" min="14" max="14" width="15.25"/>
-    <col customWidth="1" min="15" max="15" width="16.0"/>
-    <col customWidth="1" min="16" max="16" width="15.63"/>
-    <col customWidth="1" min="17" max="17" width="13.25"/>
-    <col customWidth="1" min="18" max="18" width="13.75"/>
-    <col customWidth="1" min="19" max="19" width="16.0"/>
-    <col customWidth="1" min="20" max="20" width="10.13"/>
-    <col customWidth="1" min="21" max="21" width="13.25"/>
-    <col customWidth="1" min="22" max="22" width="13.75"/>
-    <col customWidth="1" min="23" max="23" width="16.0"/>
-    <col customWidth="1" min="24" max="24" width="10.13"/>
-    <col customWidth="1" min="25" max="25" width="13.25"/>
-    <col customWidth="1" min="26" max="26" width="13.75"/>
-    <col customWidth="1" min="27" max="27" width="16.0"/>
+    <col customWidth="1" min="10" max="10" width="16.0"/>
+    <col customWidth="1" min="11" max="11" width="15.63"/>
+    <col customWidth="1" min="12" max="12" width="13.25"/>
+    <col customWidth="1" min="13" max="13" width="13.75"/>
+    <col customWidth="1" min="14" max="14" width="16.0"/>
+    <col customWidth="1" min="15" max="15" width="10.13"/>
+    <col customWidth="1" min="16" max="16" width="13.25"/>
+    <col customWidth="1" min="17" max="17" width="13.75"/>
+    <col customWidth="1" min="18" max="18" width="16.0"/>
+    <col customWidth="1" min="19" max="19" width="10.13"/>
+    <col customWidth="1" min="20" max="20" width="13.25"/>
+    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="22" max="22" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1031,55 +1001,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>0.0</v>
       </c>
       <c r="I2" s="1">
         <v>10.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1087,34 +1027,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
       <c r="I3" s="1">
         <v>11.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1122,34 +1047,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>0.0</v>
       </c>
       <c r="I4" s="1">
         <v>12.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1157,34 +1067,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>0.0</v>
       </c>
       <c r="I5" s="1">
         <v>13.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1192,13 +1087,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>0.0</v>
@@ -1206,24 +1101,19 @@
       <c r="I6" s="1">
         <v>14.0</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>0.0</v>
@@ -1231,24 +1121,19 @@
       <c r="I7" s="1">
         <v>15.0</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>0.0</v>
@@ -1256,24 +1141,19 @@
       <c r="I8" s="1">
         <v>16.0</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -1281,24 +1161,19 @@
       <c r="I9" s="1">
         <v>17.0</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>0.0</v>
@@ -1306,24 +1181,19 @@
       <c r="I10" s="1">
         <v>18.0</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>0.0</v>
@@ -1331,24 +1201,19 @@
       <c r="I11" s="1">
         <v>20.0</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>0.0</v>
@@ -1356,24 +1221,19 @@
       <c r="I12" s="1">
         <v>22.0</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
         <v>0.0</v>
@@ -1381,24 +1241,19 @@
       <c r="I13" s="1">
         <v>23.0</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
         <v>0.0</v>
@@ -1406,24 +1261,19 @@
       <c r="I14" s="1">
         <v>24.0</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1">
         <v>0.0</v>
@@ -1431,24 +1281,19 @@
       <c r="I15" s="1">
         <v>25.0</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1">
         <v>0.0</v>
@@ -1456,24 +1301,19 @@
       <c r="I16" s="1">
         <v>26.0</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1">
         <v>0.0</v>
@@ -1481,24 +1321,19 @@
       <c r="I17" s="1">
         <v>27.0</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1">
         <v>0.0</v>
@@ -1506,24 +1341,19 @@
       <c r="I18" s="1">
         <v>28.0</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1">
         <v>0.0</v>
@@ -1531,24 +1361,19 @@
       <c r="I19" s="1">
         <v>29.0</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1">
         <v>0.0</v>
@@ -1556,24 +1381,19 @@
       <c r="I20" s="1">
         <v>30.0</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1">
         <v>0.0</v>
@@ -1581,45 +1401,25 @@
       <c r="I21" s="1">
         <v>31.0</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1">
         <v>1.0</v>
       </c>
       <c r="I22" s="1">
         <v>70.0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -1627,34 +1427,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1">
         <v>1.0</v>
       </c>
       <c r="I23" s="1">
         <v>71.0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -1662,34 +1447,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1">
         <v>1.0</v>
       </c>
       <c r="I24" s="1">
         <v>72.0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -1697,34 +1467,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1">
         <v>1.0</v>
       </c>
       <c r="I25" s="1">
         <v>73.0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -1732,13 +1487,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1">
         <v>1.0</v>
@@ -1746,24 +1501,19 @@
       <c r="I26" s="1">
         <v>74.0</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1">
         <v>1.0</v>
@@ -1771,24 +1521,19 @@
       <c r="I27" s="1">
         <v>75.0</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1">
         <v>1.0</v>
@@ -1796,24 +1541,19 @@
       <c r="I28" s="1">
         <v>76.0</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1">
         <v>1.0</v>
@@ -1821,24 +1561,19 @@
       <c r="I29" s="1">
         <v>77.0</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1">
         <v>1.0</v>
@@ -1846,24 +1581,19 @@
       <c r="I30" s="1">
         <v>78.0</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1">
         <v>1.0</v>
@@ -1871,24 +1601,19 @@
       <c r="I31" s="1">
         <v>80.0</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1">
         <v>1.0</v>
@@ -1896,24 +1621,19 @@
       <c r="I32" s="1">
         <v>82.0</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1">
         <v>1.0</v>
@@ -1921,24 +1641,19 @@
       <c r="I33" s="1">
         <v>83.0</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1">
         <v>1.0</v>
@@ -1946,24 +1661,19 @@
       <c r="I34" s="1">
         <v>84.0</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F35" s="1">
         <v>1.0</v>
@@ -1971,24 +1681,19 @@
       <c r="I35" s="1">
         <v>85.0</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1">
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F36" s="1">
         <v>1.0</v>
@@ -1996,24 +1701,19 @@
       <c r="I36" s="1">
         <v>86.0</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1">
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1">
         <v>1.0</v>
@@ -2021,24 +1721,19 @@
       <c r="I37" s="1">
         <v>87.0</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1">
         <v>1.0</v>
@@ -2046,24 +1741,19 @@
       <c r="I38" s="1">
         <v>88.0</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1">
         <v>1.0</v>
@@ -2071,24 +1761,19 @@
       <c r="I39" s="1">
         <v>89.0</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1">
         <v>1.0</v>
@@ -2096,24 +1781,19 @@
       <c r="I40" s="1">
         <v>90.0</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1">
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1">
         <v>1.0</v>
@@ -2121,45 +1801,25 @@
       <c r="I41" s="1">
         <v>91.0</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F42" s="1">
         <v>2.0</v>
       </c>
       <c r="I42" s="1">
         <v>150.0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="43">
@@ -2167,34 +1827,19 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F43" s="1">
         <v>2.0</v>
       </c>
       <c r="I43" s="1">
         <v>151.0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="44">
@@ -2202,34 +1847,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F44" s="1">
         <v>2.0</v>
       </c>
       <c r="I44" s="1">
         <v>152.0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -2237,34 +1867,19 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F45" s="1">
         <v>2.0</v>
       </c>
       <c r="I45" s="1">
         <v>153.0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="46">
@@ -2272,13 +1887,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F46" s="1">
         <v>2.0</v>
@@ -2286,24 +1901,19 @@
       <c r="I46" s="1">
         <v>154.0</v>
       </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F47" s="1">
         <v>2.0</v>
@@ -2311,24 +1921,19 @@
       <c r="I47" s="1">
         <v>155.0</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1">
         <v>2.0</v>
@@ -2336,24 +1941,19 @@
       <c r="I48" s="1">
         <v>156.0</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F49" s="1">
         <v>2.0</v>
@@ -2361,24 +1961,19 @@
       <c r="I49" s="1">
         <v>157.0</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F50" s="1">
         <v>2.0</v>
@@ -2386,24 +1981,19 @@
       <c r="I50" s="1">
         <v>158.0</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1">
         <v>50.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F51" s="1">
         <v>2.0</v>
@@ -2411,24 +2001,19 @@
       <c r="I51" s="1">
         <v>160.0</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1">
         <v>51.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F52" s="1">
         <v>2.0</v>
@@ -2436,24 +2021,19 @@
       <c r="I52" s="1">
         <v>162.0</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1">
         <v>52.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F53" s="1">
         <v>2.0</v>
@@ -2461,24 +2041,19 @@
       <c r="I53" s="1">
         <v>163.0</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1">
         <v>53.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F54" s="1">
         <v>2.0</v>
@@ -2486,24 +2061,19 @@
       <c r="I54" s="1">
         <v>164.0</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1">
         <v>54.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F55" s="1">
         <v>2.0</v>
@@ -2511,24 +2081,19 @@
       <c r="I55" s="1">
         <v>165.0</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>55.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F56" s="1">
         <v>2.0</v>
@@ -2536,24 +2101,19 @@
       <c r="I56" s="1">
         <v>166.0</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>56.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F57" s="1">
         <v>2.0</v>
@@ -2561,24 +2121,19 @@
       <c r="I57" s="1">
         <v>167.0</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1">
         <v>57.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F58" s="1">
         <v>2.0</v>
@@ -2586,24 +2141,19 @@
       <c r="I58" s="1">
         <v>168.0</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1">
         <v>58.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F59" s="1">
         <v>2.0</v>
@@ -2611,24 +2161,19 @@
       <c r="I59" s="1">
         <v>169.0</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1">
         <v>59.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F60" s="1">
         <v>2.0</v>
@@ -2636,24 +2181,19 @@
       <c r="I60" s="1">
         <v>170.0</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1">
         <v>60.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F61" s="1">
         <v>2.0</v>
@@ -2661,45 +2201,25 @@
       <c r="I61" s="1">
         <v>171.0</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1">
         <v>61.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F62" s="1">
         <v>3.0</v>
       </c>
       <c r="I62" s="1">
         <v>270.0</v>
-      </c>
-      <c r="J62" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K62" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="N62" s="1">
-        <v>7.0</v>
       </c>
     </row>
     <row r="63">
@@ -2707,34 +2227,19 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F63" s="1">
         <v>3.0</v>
       </c>
       <c r="I63" s="1">
         <v>272.0</v>
-      </c>
-      <c r="J63" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K63" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="L63" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="N63" s="1">
-        <v>7.0</v>
       </c>
     </row>
     <row r="64">
@@ -2742,34 +2247,19 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F64" s="1">
         <v>3.0</v>
       </c>
       <c r="I64" s="1">
         <v>274.0</v>
-      </c>
-      <c r="J64" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="K64" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="L64" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="M64" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="N64" s="1">
-        <v>7.0</v>
       </c>
     </row>
     <row r="65">
@@ -2777,34 +2267,19 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F65" s="1">
         <v>3.0</v>
       </c>
       <c r="I65" s="1">
         <v>276.0</v>
-      </c>
-      <c r="J65" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="K65" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L65" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="M65" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="N65" s="1">
-        <v>7.0</v>
       </c>
     </row>
     <row r="66">
@@ -2812,13 +2287,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F66" s="1">
         <v>3.0</v>
@@ -2828,24 +2303,19 @@
       <c r="I66" s="1">
         <v>278.0</v>
       </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1">
         <v>66.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F67" s="1">
         <v>3.0</v>
@@ -2855,24 +2325,19 @@
       <c r="I67" s="1">
         <v>280.0</v>
       </c>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1">
         <v>67.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F68" s="1">
         <v>3.0</v>
@@ -2882,24 +2347,19 @@
       <c r="I68" s="1">
         <v>282.0</v>
       </c>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1">
         <v>68.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F69" s="1">
         <v>3.0</v>
@@ -2909,24 +2369,19 @@
       <c r="I69" s="1">
         <v>284.0</v>
       </c>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1">
         <v>69.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F70" s="1">
         <v>3.0</v>
@@ -2936,24 +2391,19 @@
       <c r="I70" s="1">
         <v>286.0</v>
       </c>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1">
         <v>70.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F71" s="1">
         <v>3.0</v>
@@ -2963,24 +2413,19 @@
       <c r="I71" s="1">
         <v>300.0</v>
       </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1">
         <v>71.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F72" s="1">
         <v>3.0</v>
@@ -2990,24 +2435,19 @@
       <c r="I72" s="1">
         <v>320.0</v>
       </c>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1">
         <v>72.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F73" s="1">
         <v>3.0</v>
@@ -3017,24 +2457,19 @@
       <c r="I73" s="1">
         <v>322.0</v>
       </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1">
         <v>73.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F74" s="1">
         <v>3.0</v>
@@ -3044,24 +2479,19 @@
       <c r="I74" s="1">
         <v>324.0</v>
       </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1">
         <v>74.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F75" s="1">
         <v>3.0</v>
@@ -3071,24 +2501,19 @@
       <c r="I75" s="1">
         <v>326.0</v>
       </c>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1">
         <v>75.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F76" s="1">
         <v>3.0</v>
@@ -3098,24 +2523,19 @@
       <c r="I76" s="1">
         <v>328.0</v>
       </c>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1">
         <v>76.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F77" s="1">
         <v>3.0</v>
@@ -3125,24 +2545,19 @@
       <c r="I77" s="1">
         <v>330.0</v>
       </c>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1">
         <v>77.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F78" s="1">
         <v>3.0</v>
@@ -3152,24 +2567,19 @@
       <c r="I78" s="1">
         <v>332.0</v>
       </c>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1">
         <v>78.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F79" s="1">
         <v>3.0</v>
@@ -3179,24 +2589,19 @@
       <c r="I79" s="1">
         <v>334.0</v>
       </c>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1">
         <v>79.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F80" s="1">
         <v>3.0</v>
@@ -3206,24 +2611,19 @@
       <c r="I80" s="1">
         <v>336.0</v>
       </c>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1">
         <v>80.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F81" s="1">
         <v>3.0</v>
@@ -3233,51 +2633,31 @@
       <c r="I81" s="1">
         <v>338.0</v>
       </c>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1">
         <v>81.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F82" s="1">
         <v>4.0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H82" s="1">
         <v>0.01</v>
       </c>
       <c r="I82" s="1">
         <v>750.0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="K82" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="L82" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="M82" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N82" s="1">
-        <v>10.0</v>
       </c>
     </row>
     <row r="83">
@@ -3285,40 +2665,25 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F83" s="1">
         <v>4.0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H83" s="1">
         <v>0.05</v>
       </c>
       <c r="I83" s="1">
         <v>755.0</v>
-      </c>
-      <c r="J83" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="K83" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="L83" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="M83" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N83" s="1">
-        <v>10.0</v>
       </c>
     </row>
     <row r="84">
@@ -3326,40 +2691,25 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F84" s="1">
         <v>4.0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H84" s="1">
         <v>0.01</v>
       </c>
       <c r="I84" s="1">
         <v>760.0</v>
-      </c>
-      <c r="J84" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="K84" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="L84" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N84" s="1">
-        <v>10.0</v>
       </c>
     </row>
     <row r="85">
@@ -3367,40 +2717,25 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F85" s="1">
         <v>4.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H85" s="1">
         <v>0.05</v>
       </c>
       <c r="I85" s="1">
         <v>765.0</v>
-      </c>
-      <c r="J85" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K85" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="L85" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="M85" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N85" s="1">
-        <v>10.0</v>
       </c>
     </row>
     <row r="86">
@@ -3408,13 +2743,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F86" s="1">
         <v>4.0</v>
@@ -3428,13 +2763,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F87" s="1">
         <v>4.0</v>
@@ -3448,13 +2783,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F88" s="1">
         <v>4.0</v>
@@ -3468,13 +2803,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F89" s="1">
         <v>4.0</v>
@@ -3488,13 +2823,13 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F90" s="1">
         <v>4.0</v>
@@ -3508,13 +2843,13 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F91" s="1">
         <v>4.0</v>
@@ -3528,13 +2863,13 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F92" s="1">
         <v>4.0</v>
@@ -3548,13 +2883,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F93" s="1">
         <v>4.0</v>
@@ -3568,13 +2903,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F94" s="1">
         <v>4.0</v>
@@ -3588,13 +2923,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F95" s="1">
         <v>4.0</v>
@@ -3608,13 +2943,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F96" s="1">
         <v>4.0</v>
@@ -3628,13 +2963,13 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F97" s="1">
         <v>4.0</v>
@@ -3648,13 +2983,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F98" s="1">
         <v>4.0</v>
@@ -3668,13 +3003,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F99" s="1">
         <v>4.0</v>
@@ -3688,13 +3023,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F100" s="1">
         <v>4.0</v>
@@ -3708,13 +3043,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F101" s="1">
         <v>4.0</v>
